--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Matn1-Itgb1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Matn1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Matn1</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.166893811420212</v>
+        <v>0.2053186666666666</v>
       </c>
       <c r="H2">
-        <v>0.166893811420212</v>
+        <v>0.6159559999999999</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.420847658662702</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.4208476586627021</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N2">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q2">
-        <v>27.05490565078983</v>
+        <v>33.61312654599288</v>
       </c>
       <c r="R2">
-        <v>27.05490565078983</v>
+        <v>302.518138913936</v>
       </c>
       <c r="S2">
-        <v>0.2751136348397736</v>
+        <v>0.1159015740761386</v>
       </c>
       <c r="T2">
-        <v>0.2751136348397736</v>
+        <v>0.1159015740761386</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.166893811420212</v>
+        <v>0.2053186666666666</v>
       </c>
       <c r="H3">
-        <v>0.166893811420212</v>
+        <v>0.6159559999999999</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.420847658662702</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.4208476586627021</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N3">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q3">
-        <v>28.79836607676048</v>
+        <v>35.429480526044</v>
       </c>
       <c r="R3">
-        <v>28.79836607676048</v>
+        <v>318.8653247343959</v>
       </c>
       <c r="S3">
-        <v>0.2928423876648305</v>
+        <v>0.1221645524717761</v>
       </c>
       <c r="T3">
-        <v>0.2928423876648305</v>
+        <v>0.1221645524717761</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.166893811420212</v>
+        <v>0.2053186666666666</v>
       </c>
       <c r="H4">
-        <v>0.166893811420212</v>
+        <v>0.6159559999999999</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.420847658662702</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.4208476586627021</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N4">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q4">
-        <v>18.56990573333826</v>
+        <v>22.89060125003422</v>
       </c>
       <c r="R4">
-        <v>18.56990573333826</v>
+        <v>206.015411250308</v>
       </c>
       <c r="S4">
-        <v>0.188832085791491</v>
+        <v>0.07892918597732976</v>
       </c>
       <c r="T4">
-        <v>0.188832085791491</v>
+        <v>0.07892918597732977</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.166893811420212</v>
+        <v>0.2053186666666666</v>
       </c>
       <c r="H5">
-        <v>0.166893811420212</v>
+        <v>0.6159559999999999</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.420847658662702</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.4208476586627021</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N5">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q5">
-        <v>14.39870508196242</v>
+        <v>17.85409698870355</v>
       </c>
       <c r="R5">
-        <v>14.39870508196242</v>
+        <v>160.686872898332</v>
       </c>
       <c r="S5">
-        <v>0.1464163336296447</v>
+        <v>0.06156279279368249</v>
       </c>
       <c r="T5">
-        <v>0.1464163336296447</v>
+        <v>0.0615627927936825</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,371 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.166893811420212</v>
+        <v>0.2053186666666666</v>
       </c>
       <c r="H6">
-        <v>0.166893811420212</v>
+        <v>0.6159559999999999</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.420847658662702</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.4208476586627021</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N6">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q6">
-        <v>9.518956385567169</v>
+        <v>12.26457983378222</v>
       </c>
       <c r="R6">
-        <v>9.518956385567169</v>
+        <v>110.38121850404</v>
       </c>
       <c r="S6">
-        <v>0.09679555807426021</v>
+        <v>0.042289553343775</v>
       </c>
       <c r="T6">
-        <v>0.09679555807426021</v>
+        <v>0.04228955334377501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.2825506666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.847652</v>
+      </c>
+      <c r="I7">
+        <v>0.579152341337298</v>
+      </c>
+      <c r="J7">
+        <v>0.579152341337298</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>163.7119853333333</v>
+      </c>
+      <c r="N7">
+        <v>491.135956</v>
+      </c>
+      <c r="O7">
+        <v>0.2754003062401033</v>
+      </c>
+      <c r="P7">
+        <v>0.2754003062401033</v>
+      </c>
+      <c r="Q7">
+        <v>46.25693059725689</v>
+      </c>
+      <c r="R7">
+        <v>416.3123753753119</v>
+      </c>
+      <c r="S7">
+        <v>0.1594987321639647</v>
+      </c>
+      <c r="T7">
+        <v>0.1594987321639647</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.2825506666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.847652</v>
+      </c>
+      <c r="I8">
+        <v>0.579152341337298</v>
+      </c>
+      <c r="J8">
+        <v>0.579152341337298</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>172.558497</v>
+      </c>
+      <c r="N8">
+        <v>517.675491</v>
+      </c>
+      <c r="O8">
+        <v>0.290282124557779</v>
+      </c>
+      <c r="P8">
+        <v>0.290282124557779</v>
+      </c>
+      <c r="Q8">
+        <v>48.756518366348</v>
+      </c>
+      <c r="R8">
+        <v>438.8086652971319</v>
+      </c>
+      <c r="S8">
+        <v>0.1681175720860029</v>
+      </c>
+      <c r="T8">
+        <v>0.1681175720860029</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.2825506666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.847652</v>
+      </c>
+      <c r="I9">
+        <v>0.579152341337298</v>
+      </c>
+      <c r="J9">
+        <v>0.579152341337298</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>111.4881643333333</v>
+      </c>
+      <c r="N9">
+        <v>334.464493</v>
+      </c>
+      <c r="O9">
+        <v>0.1875481171218523</v>
+      </c>
+      <c r="P9">
+        <v>0.1875481171218523</v>
+      </c>
+      <c r="Q9">
+        <v>31.50105515782622</v>
+      </c>
+      <c r="R9">
+        <v>283.509496420436</v>
+      </c>
+      <c r="S9">
+        <v>0.1086189311445225</v>
+      </c>
+      <c r="T9">
+        <v>0.1086189311445225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.2825506666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.847652</v>
+      </c>
+      <c r="I10">
+        <v>0.579152341337298</v>
+      </c>
+      <c r="J10">
+        <v>0.579152341337298</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>86.95798233333333</v>
+      </c>
+      <c r="N10">
+        <v>260.873947</v>
+      </c>
+      <c r="O10">
+        <v>0.1462828449356383</v>
+      </c>
+      <c r="P10">
+        <v>0.1462828449356383</v>
+      </c>
+      <c r="Q10">
+        <v>24.57003588027156</v>
+      </c>
+      <c r="R10">
+        <v>221.130322922444</v>
+      </c>
+      <c r="S10">
+        <v>0.08472005214195585</v>
+      </c>
+      <c r="T10">
+        <v>0.08472005214195585</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.2825506666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.847652</v>
+      </c>
+      <c r="I11">
+        <v>0.579152341337298</v>
+      </c>
+      <c r="J11">
+        <v>0.579152341337298</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>59.73436333333333</v>
+      </c>
+      <c r="N11">
+        <v>179.20309</v>
+      </c>
+      <c r="O11">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="P11">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="Q11">
+        <v>16.87798418274222</v>
+      </c>
+      <c r="R11">
+        <v>151.90185764468</v>
+      </c>
+      <c r="S11">
+        <v>0.05819705380085197</v>
+      </c>
+      <c r="T11">
+        <v>0.05819705380085197</v>
       </c>
     </row>
   </sheetData>
